--- a/changes/g3-stocks.xlsx
+++ b/changes/g3-stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147454A6-E533-40F6-B1EB-BF15995A2F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6348387-E74D-4265-A4DE-68B500FA95B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,23 +1242,26 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
       </c>
       <c r="M8">
         <v>1200</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>-4.4000000000000004</v>
+        <v>-4.3000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1272,7 +1275,7 @@
         <v>-2</v>
       </c>
       <c r="D9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1285,7 +1288,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>-3.4000000000000004</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1371,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E13">
         <v>-10</v>
@@ -1384,7 +1387,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>22.799999999999997</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1835,19 +1838,19 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ref="C26:M26" si="7">C3+C8+C18</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="7"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="7"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="7"/>
@@ -1855,7 +1858,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
@@ -1879,7 +1882,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>18.8</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
